--- a/Excel/tasas-ldf-fail.xlsx
+++ b/Excel/tasas-ldf-fail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">NOMBRE DE LA TASA</t>
   </si>
@@ -31,12 +31,12 @@
     <t xml:space="preserve">DTF</t>
   </si>
   <si>
+    <t xml:space="preserve">10.26</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBR 1M</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0235</t>
-  </si>
-  <si>
     <t xml:space="preserve">IBR 3M</t>
   </si>
   <si>
@@ -44,20 +44,25 @@
   </si>
   <si>
     <t xml:space="preserve">IBR 6M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.325</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,6 +78,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -97,6 +109,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -123,17 +142,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,55 +180,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>21325</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
